--- a/template_examples/wes_tumor_only_analysis_template.xlsx
+++ b/template_examples/wes_tumor_only_analysis_template.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="WES Analysis" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="WES tumor-only Analysis" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Legend" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Data Dictionary" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>

--- a/template_examples/wes_tumor_only_analysis_template.xlsx
+++ b/template_examples/wes_tumor_only_analysis_template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WES tumor-only Analysis" sheetId="1" state="visible" r:id="rId2"/>
@@ -66,7 +66,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -104,7 +104,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+          <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
         </r>
       </text>
     </comment>
@@ -222,7 +222,7 @@
     <t xml:space="preserve">String: regex ^C[A-Z0-9]{3}[A-Z0-9]{3}[A-Z0-9]{2}.[0-9]{2}$ </t>
   </si>
   <si>
-    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as C????????.??</t>
+    <t xml:space="preserve">Specimen identifier assigned by the CIMAC-CIDC Network. Formatted as CTTTPPPSS.AA for trial code TTT, participant PPP, sample SS, and aliquot AA.</t>
   </si>
   <si>
     <t xml:space="preserve">E.g. 'CTTTP01A1.00'</t>
@@ -374,7 +374,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,6 +389,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -479,8 +483,8 @@
   </sheetPr>
   <dimension ref="A1:D2006"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7:C8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B3:C4 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -547,10 +551,10 @@
       <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
     </row>
@@ -558,10 +562,10 @@
       <c r="A8" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10578,8 +10582,8 @@
   </sheetPr>
   <dimension ref="A1:C2002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="B7:C8 B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10611,10 +10615,10 @@
       <c r="A3" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -10622,10 +10626,10 @@
       <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -20642,7 +20646,7 @@
   <dimension ref="B1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B7:C8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20651,7 +20655,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -20775,7 +20779,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B7:C8 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B3:C4 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
